--- a/ig/M-Priour-patch-2/ValueSet-TypeCarteVS.xlsx
+++ b/ig/M-Priour-patch-2/ValueSet-TypeCarteVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/example/ValueSet/TypeCarteVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/example/ValueSet/TypeCarteVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:08:50+00:00</t>
+    <t>2023-03-19T15:16:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/example/CodeSystem/type-carte-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/example/CodeSystem/type-carte-code-system</t>
   </si>
 </sst>
 </file>
